--- a/static/EcoAlpsWater/template_files/vertical_temperature_profiles.xlsx
+++ b/static/EcoAlpsWater/template_files/vertical_temperature_profiles.xlsx
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">Depth min (m)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depth max (m)</t>
+    <t xml:space="preserve">Depth (m)</t>
   </si>
   <si>
     <t xml:space="preserve">Temperature (°C)</t>
@@ -43,6 +40,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -124,18 +122,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.18"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -144,9 +141,6 @@
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
